--- a/data/output/FV2304_FV2210/UTILMD/11020.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11020.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3616" uniqueCount="315">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3637" uniqueCount="315">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1063,6 +1063,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U169" totalsRowShown="0">
+  <autoFilter ref="A1:U169"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1352,7 +1382,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9134,5 +9167,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11020.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11020.xlsx
@@ -1972,7 +1972,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2440,7 +2440,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2630,7 +2630,7 @@
         <v>293</v>
       </c>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3298,7 +3298,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -3658,7 +3658,7 @@
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="4"/>
-      <c r="M37" s="2" t="s">
+      <c r="M37" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N37" s="2" t="s">
@@ -3954,7 +3954,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4142,7 +4142,7 @@
         <v>295</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4346,7 +4346,7 @@
         <v>296</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4550,7 +4550,7 @@
         <v>297</v>
       </c>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -4754,7 +4754,7 @@
         <v>298</v>
       </c>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -4958,7 +4958,7 @@
         <v>299</v>
       </c>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -5110,7 +5110,7 @@
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -5364,7 +5364,7 @@
         <v>300</v>
       </c>
       <c r="L71" s="4"/>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -5554,7 +5554,7 @@
       </c>
       <c r="K75" s="2"/>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -5744,7 +5744,7 @@
         <v>302</v>
       </c>
       <c r="L79" s="4"/>
-      <c r="M79" s="2" t="s">
+      <c r="M79" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N79" s="2" t="s">
@@ -5932,7 +5932,7 @@
         <v>303</v>
       </c>
       <c r="L83" s="4"/>
-      <c r="M83" s="2" t="s">
+      <c r="M83" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N83" s="2" t="s">
@@ -6070,7 +6070,7 @@
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -6220,7 +6220,7 @@
         <v>304</v>
       </c>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -6466,7 +6466,7 @@
         <v>306</v>
       </c>
       <c r="L94" s="4"/>
-      <c r="M94" s="2" t="s">
+      <c r="M94" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N94" s="2" t="s">
@@ -6712,7 +6712,7 @@
         <v>308</v>
       </c>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -6900,7 +6900,7 @@
         <v>295</v>
       </c>
       <c r="L103" s="4"/>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N103" s="2" t="s">
@@ -7094,7 +7094,7 @@
         <v>309</v>
       </c>
       <c r="L107" s="4"/>
-      <c r="M107" s="2" t="s">
+      <c r="M107" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N107" s="2" t="s">
@@ -7192,7 +7192,7 @@
         <v>295</v>
       </c>
       <c r="L109" s="4"/>
-      <c r="M109" s="2" t="s">
+      <c r="M109" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N109" s="2" t="s">
@@ -7384,7 +7384,7 @@
         <v>310</v>
       </c>
       <c r="L113" s="4"/>
-      <c r="M113" s="2" t="s">
+      <c r="M113" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N113" s="2" t="s">
@@ -7684,7 +7684,7 @@
         <v>295</v>
       </c>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -7824,7 +7824,7 @@
         <v>295</v>
       </c>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -8030,7 +8030,7 @@
       </c>
       <c r="K126" s="2"/>
       <c r="L126" s="4"/>
-      <c r="M126" s="2" t="s">
+      <c r="M126" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N126" s="2" t="s">
@@ -8238,7 +8238,7 @@
         <v>312</v>
       </c>
       <c r="L130" s="4"/>
-      <c r="M130" s="2" t="s">
+      <c r="M130" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N130" s="2" t="s">
@@ -8374,7 +8374,7 @@
       </c>
       <c r="K133" s="2"/>
       <c r="L133" s="4"/>
-      <c r="M133" s="2" t="s">
+      <c r="M133" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N133" s="2" t="s">
@@ -8618,7 +8618,7 @@
       </c>
       <c r="K138" s="2"/>
       <c r="L138" s="4"/>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -8816,7 +8816,7 @@
       </c>
       <c r="K142" s="2"/>
       <c r="L142" s="4"/>
-      <c r="M142" s="2" t="s">
+      <c r="M142" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N142" s="2" t="s">
@@ -9218,7 +9218,7 @@
         <v>314</v>
       </c>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -9514,7 +9514,7 @@
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N156" s="2" t="s">
@@ -9664,7 +9664,7 @@
         <v>295</v>
       </c>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N159" s="2" t="s">
@@ -10054,7 +10054,7 @@
       </c>
       <c r="K167" s="2"/>
       <c r="L167" s="4"/>
-      <c r="M167" s="2" t="s">
+      <c r="M167" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N167" s="2"/>
